--- a/Orientierungstabellen.xlsx
+++ b/Orientierungstabellen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11104"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sventhies/OneDrive - Traum-Ferienwohnungen GmbH/Privat/Sven/FOM/R-Training/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2953E51-B218-B747-B9D9-E20602170B02}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9768FE-F194-CF45-B933-A8713AEE8E81}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" activeTab="2" xr2:uid="{215AAE99-CBBC-AE47-9D09-C3C150B260CA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{215AAE99-CBBC-AE47-9D09-C3C150B260CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Kernprozess" sheetId="2" r:id="rId1"/>
@@ -387,7 +387,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -406,29 +406,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -714,7 +692,31 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
         <color indexed="64"/>
       </right>
       <top/>
@@ -729,13 +731,13 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -747,7 +749,35 @@
     </border>
     <border>
       <left/>
-      <right style="dotted">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -755,13 +785,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="dotted">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -771,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -784,7 +814,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -796,40 +826,40 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -844,205 +874,198 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1051,9 +1074,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1370,8 +1404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27B9ADD-2789-ED4E-9E89-A073130D42CA}">
   <dimension ref="B2:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1390,13 +1424,13 @@
     </row>
     <row r="3" spans="2:5" ht="25" customHeight="1">
       <c r="B3" s="5"/>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1404,53 +1438,53 @@
       <c r="B4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="38" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20" customHeight="1">
       <c r="B5" s="7"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="45" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="39" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="20" customHeight="1">
       <c r="B6" s="7"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="45" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="39" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="20" customHeight="1">
       <c r="B7" s="7"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="45" t="s">
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="39" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="20" customHeight="1">
       <c r="B8" s="7"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="45" t="s">
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="39" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="20" customHeight="1">
       <c r="B9" s="8"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48" t="s">
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1458,59 +1492,59 @@
       <c r="B10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="43" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="20" customHeight="1">
       <c r="B11" s="7"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="37"/>
+      <c r="E11" s="31"/>
     </row>
     <row r="12" spans="2:5" ht="20" customHeight="1">
       <c r="B12" s="7"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="37"/>
+      <c r="E12" s="31"/>
     </row>
     <row r="13" spans="2:5" ht="20" customHeight="1">
       <c r="B13" s="7"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38" t="s">
+      <c r="C13" s="31"/>
+      <c r="D13" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="37"/>
+      <c r="E13" s="31"/>
     </row>
     <row r="14" spans="2:5" ht="20" customHeight="1">
       <c r="B14" s="8"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47" t="s">
+      <c r="C14" s="40"/>
+      <c r="D14" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="46"/>
+      <c r="E14" s="40"/>
     </row>
     <row r="15" spans="2:5" ht="20" customHeight="1">
       <c r="B15" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="49" t="s">
+      <c r="E15" s="43" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1518,11 +1552,11 @@
       <c r="B16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38" t="s">
+      <c r="C16" s="31"/>
+      <c r="D16" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="49" t="s">
+      <c r="E16" s="43" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1530,75 +1564,75 @@
       <c r="B17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38" t="s">
+      <c r="C17" s="31"/>
+      <c r="D17" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="37"/>
+      <c r="E17" s="31"/>
     </row>
     <row r="18" spans="2:5" ht="20" customHeight="1">
       <c r="B18" s="7"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38" t="s">
+      <c r="C18" s="31"/>
+      <c r="D18" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="37"/>
+      <c r="E18" s="31"/>
     </row>
     <row r="19" spans="2:5" ht="20" customHeight="1">
       <c r="B19" s="7"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="37"/>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="2:5" ht="20" customHeight="1">
       <c r="B20" s="7"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="38" t="s">
+      <c r="C20" s="28"/>
+      <c r="D20" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="34"/>
+      <c r="E20" s="28"/>
     </row>
     <row r="21" spans="2:5" ht="20" customHeight="1">
       <c r="B21" s="8"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="47" t="s">
+      <c r="C21" s="34"/>
+      <c r="D21" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="40"/>
+      <c r="E21" s="34"/>
     </row>
     <row r="22" spans="2:5" ht="20" customHeight="1">
       <c r="B22" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="33" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="20" customHeight="1">
       <c r="B23" s="7"/>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="33" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="20" customHeight="1">
       <c r="B24" s="8"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="50" t="s">
+      <c r="C24" s="34"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="44" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1606,61 +1640,61 @@
       <c r="B25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="34"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" spans="2:5" ht="20" customHeight="1">
       <c r="B26" s="7"/>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="34"/>
+      <c r="E26" s="28"/>
     </row>
     <row r="27" spans="2:5" ht="20" customHeight="1">
       <c r="B27" s="7"/>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="33" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="20" customHeight="1">
       <c r="B28" s="7"/>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="34"/>
+      <c r="E28" s="28"/>
     </row>
     <row r="29" spans="2:5" ht="20" customHeight="1">
       <c r="B29" s="7"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="36" t="s">
+      <c r="C29" s="28"/>
+      <c r="D29" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="34"/>
+      <c r="E29" s="28"/>
     </row>
     <row r="30" spans="2:5" ht="20" customHeight="1">
       <c r="B30" s="8"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="41" t="s">
+      <c r="C30" s="34"/>
+      <c r="D30" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="40"/>
+      <c r="E30" s="34"/>
     </row>
     <row r="31" spans="2:5" ht="20" customHeight="1"/>
   </sheetData>
@@ -1673,7 +1707,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B14" sqref="B14:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1697,125 +1731,125 @@
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" ht="25" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="78" t="s">
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="95" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" ht="25" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="75"/>
+      <c r="F3" s="84"/>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" ht="25" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="87" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" ht="25" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25" t="s">
+      <c r="B5" s="63"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="76"/>
+      <c r="F5" s="88"/>
     </row>
     <row r="6" spans="1:6" s="4" customFormat="1" ht="25" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="19" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="77"/>
+      <c r="F6" s="90"/>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" ht="25" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="76" t="s">
+      <c r="F7" s="88" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="25" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="19" t="s">
+      <c r="B8" s="64"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="77"/>
+      <c r="F8" s="90"/>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" ht="25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="76" t="s">
+      <c r="F9" s="88" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1" ht="25" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="26" t="s">
+      <c r="B10" s="64"/>
+      <c r="C10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="77"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="90"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2"/>
@@ -1836,104 +1870,116 @@
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="25" customHeight="1">
       <c r="A14" s="3"/>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="9"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="96"/>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1" ht="25" customHeight="1">
       <c r="A15" s="3"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="20" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="97"/>
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1" ht="25" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="29" t="s">
+      <c r="D16" s="61"/>
+      <c r="E16" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="98"/>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" ht="25" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="63" t="s">
+      <c r="B17" s="90"/>
+      <c r="C17" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="30" t="s">
+      <c r="D17" s="66"/>
+      <c r="E17" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="14"/>
+      <c r="F17" s="99"/>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1" ht="25" customHeight="1">
       <c r="A18" s="3"/>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="31" t="s">
+      <c r="D18" s="61"/>
+      <c r="E18" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="98"/>
     </row>
     <row r="19" spans="1:6" s="4" customFormat="1" ht="25" customHeight="1">
       <c r="A19" s="3"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="63" t="s">
+      <c r="B19" s="64"/>
+      <c r="C19" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="30" t="s">
+      <c r="D19" s="66"/>
+      <c r="E19" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="98"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2"/>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="70" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="100"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="B21" s="66"/>
-      <c r="C21" s="13"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="64"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B9:B10"/>
@@ -1942,17 +1988,6 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1962,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71071FC-5132-7A42-98F1-DAE7F6BC3AC0}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1976,216 +2011,211 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="52"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="78"/>
       <c r="C2" s="79" t="s">
         <v>92</v>
       </c>
       <c r="D2" s="80"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="90"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="82"/>
     </row>
     <row r="3" spans="1:6" ht="25" customHeight="1">
-      <c r="A3" s="52"/>
-      <c r="B3" s="93" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="78" t="s">
+      <c r="F3" s="83" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="25" customHeight="1">
-      <c r="A4" s="52"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="75" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="54" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="75"/>
+      <c r="F4" s="84"/>
     </row>
     <row r="5" spans="1:6" ht="25" customHeight="1">
-      <c r="A5" s="52"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="29" t="s">
+      <c r="D5" s="61"/>
+      <c r="E5" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="85" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="25" customHeight="1">
-      <c r="A6" s="52"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="63" t="s">
+      <c r="A6" s="45"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="30" t="s">
+      <c r="D6" s="66"/>
+      <c r="E6" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="87"/>
+      <c r="F6" s="86"/>
     </row>
     <row r="7" spans="1:6" ht="25" customHeight="1">
-      <c r="A7" s="52"/>
-      <c r="B7" s="71" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="29" t="s">
+      <c r="D7" s="61"/>
+      <c r="E7" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="87"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:6" ht="25" customHeight="1">
-      <c r="A8" s="52"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="82" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="55" t="s">
+      <c r="D8" s="74"/>
+      <c r="E8" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="87"/>
+      <c r="F8" s="86"/>
     </row>
     <row r="9" spans="1:6" ht="25" customHeight="1">
-      <c r="A9" s="52"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="60" t="s">
+      <c r="A9" s="45"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="56"/>
-      <c r="F9" s="87"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="10" spans="1:6" ht="25" customHeight="1">
-      <c r="A10" s="52"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="58" t="s">
+      <c r="A10" s="45"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="87"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="86"/>
     </row>
     <row r="11" spans="1:6" ht="25" customHeight="1">
-      <c r="A11" s="52"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="59" t="s">
+      <c r="A11" s="45"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="88"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="89"/>
     </row>
     <row r="12" spans="1:6" ht="25" customHeight="1">
-      <c r="A12" s="52"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="95" t="s">
+      <c r="A12" s="45"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="96"/>
-      <c r="E12" s="97" t="s">
+      <c r="D12" s="77"/>
+      <c r="E12" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="86" t="s">
+      <c r="F12" s="85" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="25" customHeight="1">
-      <c r="A13" s="52"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="61" t="s">
+      <c r="A13" s="45"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="32" t="s">
+      <c r="D13" s="75"/>
+      <c r="E13" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="87"/>
+      <c r="F13" s="86"/>
     </row>
     <row r="14" spans="1:6" ht="25" customHeight="1">
-      <c r="A14" s="52"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="63" t="s">
+      <c r="A14" s="45"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="33" t="s">
+      <c r="D14" s="66"/>
+      <c r="E14" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="88"/>
+      <c r="F14" s="89"/>
     </row>
     <row r="15" spans="1:6" ht="25" customHeight="1">
-      <c r="A15" s="52"/>
-      <c r="B15" s="81" t="s">
+      <c r="A15" s="45"/>
+      <c r="B15" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="31" t="s">
+      <c r="D15" s="72"/>
+      <c r="E15" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="90"/>
+      <c r="F15" s="91"/>
     </row>
     <row r="16" spans="1:6" ht="25" customHeight="1">
-      <c r="A16" s="52"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="63" t="s">
+      <c r="A16" s="45"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="30" t="s">
+      <c r="D16" s="66"/>
+      <c r="E16" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="91"/>
+      <c r="F16" s="92"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="52"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F5:F11"/>
-    <mergeCell ref="C2:E2"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C15:D15"/>
@@ -2199,6 +2229,11 @@
     <mergeCell ref="B7:B14"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F11"/>
+    <mergeCell ref="C2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
